--- a/BasedeDatos_completa_2018_2021_corregida.xlsx
+++ b/BasedeDatos_completa_2018_2021_corregida.xlsx
@@ -679,8 +679,7 @@
     <t xml:space="preserve">César Augusto Marín López
 Nolberto Gutiérrez Posada
 Silvia Helena Mejía Vélez
-Arcesio Millán
-</t>
+Arcesio Millán Chica</t>
   </si>
   <si>
     <t xml:space="preserve">factores de competitividad,actividades empresariales,retail,canasta familiar,consumo</t>
@@ -1276,27 +1275,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Arial Narrow"/>
       <b/>
-      <color indexed="64"/>
       <sz val="12.000000"/>
     </font>
     <font>
       <name val="Arial Narrow"/>
       <b/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Arial Narrow"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
@@ -1305,7 +1297,6 @@
     </font>
     <font>
       <name val="Arial Narrow"/>
-      <color indexed="64"/>
       <sz val="12.000000"/>
     </font>
   </fonts>
@@ -1350,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1361,23 +1352,17 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1385,19 +1370,19 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1414,13 +1399,13 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1933,7 +1918,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" workbookViewId="0">
       <selection activeCell="M18" activeCellId="0" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -1941,7 +1926,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="6"/>
     <col customWidth="1" min="2" max="2" width="36.140625"/>
-    <col customWidth="1" min="3" max="3" width="21"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="24.7109375"/>
     <col customWidth="1" min="4" max="4" width="22.140625"/>
     <col customWidth="1" min="5" max="5" width="16.7109375"/>
     <col customWidth="1" min="6" max="6" width="31.85546875"/>
@@ -1988,65 +1973,65 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" ht="105">
       <c r="A3" s="3">
         <v>2018</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" ht="85.5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2018</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2071,7 +2056,7 @@
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2101,7 +2086,7 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2109,17 +2094,17 @@
       <c r="A6" s="4">
         <v>2018</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2169,10 +2154,10 @@
       <c r="A8" s="4">
         <v>2018</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="4"/>
@@ -2191,7 +2176,7 @@
       <c r="I8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2199,10 +2184,10 @@
       <c r="A9" s="4">
         <v>2018</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4"/>
@@ -2217,167 +2202,167 @@
       <c r="I9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" ht="75">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2018</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" ht="75">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>2018</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" ht="75">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>2018</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" ht="57">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>2018</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" ht="30">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>2018</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2385,31 +2370,31 @@
       <c r="A15" s="4">
         <v>2018</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2417,17 +2402,17 @@
       <c r="A16" s="4">
         <v>2018</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>78</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2439,7 +2424,7 @@
       <c r="I16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2447,19 +2432,19 @@
       <c r="A17" s="4">
         <v>2018</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>85</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2471,7 +2456,7 @@
       <c r="I17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2479,17 +2464,17 @@
       <c r="A18" s="4">
         <v>2018</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2501,7 +2486,7 @@
       <c r="I18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2509,17 +2494,17 @@
       <c r="A19" s="4">
         <v>2018</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>98</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2531,7 +2516,7 @@
       <c r="I19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2539,17 +2524,17 @@
       <c r="A20" s="4">
         <v>2018</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2561,938 +2546,938 @@
       <c r="I20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="8" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="21" ht="138" customHeight="1">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>2019</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" ht="117" customHeight="1">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>2019</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" ht="56.25" customHeight="1">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>2019</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="24" ht="106.5" customHeight="1">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>2019</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="I24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" ht="79.5" customHeight="1">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>2019</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" ht="75">
-      <c r="A26" s="13">
+      <c r="A26" s="11">
         <v>2019</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" ht="36.75" customHeight="1">
-      <c r="A27" s="13">
+      <c r="A27" s="11">
         <v>2019</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" ht="65.25" customHeight="1">
-      <c r="A28" s="13">
+      <c r="A28" s="11">
         <v>2019</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" ht="59.25" customHeight="1">
-      <c r="A29" s="13">
+      <c r="A29" s="11">
         <v>2019</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" ht="80.25" customHeight="1">
-      <c r="A30" s="13">
+      <c r="A30" s="11">
         <v>2019</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" ht="174" customHeight="1">
-      <c r="A31" s="13">
+      <c r="A31" s="11">
         <v>2019</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" ht="79.5" customHeight="1">
-      <c r="A32" s="13">
+      <c r="A32" s="11">
         <v>2019</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="33" ht="85.5" customHeight="1">
-      <c r="A33" s="13">
+      <c r="A33" s="11">
         <v>2019</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" ht="96.75" customHeight="1">
-      <c r="A34" s="13">
+      <c r="A34" s="11">
         <v>2019</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="35" ht="44.25" customHeight="1">
-      <c r="A35" s="13">
+      <c r="A35" s="11">
         <v>2019</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="36" ht="64.5" customHeight="1">
-      <c r="A36" s="13">
+      <c r="A36" s="11">
         <v>2019</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" ht="115.5" customHeight="1">
-      <c r="A37" s="13">
+      <c r="A37" s="11">
         <v>2019</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" ht="87" customHeight="1">
-      <c r="A38" s="13">
+      <c r="A38" s="11">
         <v>2019</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="8" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" ht="79.5" customHeight="1">
-      <c r="A39" s="13">
+      <c r="A39" s="11">
         <v>2019</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="8" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="40" ht="61.5" customHeight="1">
-      <c r="A40" s="13">
+      <c r="A40" s="11">
         <v>2019</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" ht="66" customHeight="1">
-      <c r="A41" s="13">
+      <c r="A41" s="11">
         <v>2019</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" ht="58.5" customHeight="1">
-      <c r="A42" s="13">
+      <c r="A42" s="11">
         <v>2019</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="43" ht="85.5" customHeight="1">
-      <c r="A43" s="13">
+      <c r="A43" s="11">
         <v>2019</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" ht="74.25" customHeight="1">
-      <c r="A44" s="13">
+      <c r="A44" s="11">
         <v>2019</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="12" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="45" ht="63" customHeight="1">
-      <c r="A45" s="13">
+      <c r="A45" s="11">
         <v>2019</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" ht="57" customHeight="1">
-      <c r="A46" s="13">
+      <c r="A46" s="11">
         <v>2019</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="47" ht="108" customHeight="1">
-      <c r="A47" s="13">
+      <c r="A47" s="11">
         <v>2019</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="10"/>
+      <c r="F47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="48" ht="102" customHeight="1">
-      <c r="A48" s="13">
+      <c r="A48" s="11">
         <v>2019</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="49" ht="45.75" customHeight="1">
-      <c r="A49" s="13">
+      <c r="A49" s="11">
         <v>2019</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="10"/>
+      <c r="F49" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J49" s="9" t="s">
+      <c r="J49" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="50" ht="54" customHeight="1">
-      <c r="A50" s="13">
+      <c r="A50" s="11">
         <v>2019</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="16"/>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="14"/>
+      <c r="E50" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="51" ht="49.5" customHeight="1">
-      <c r="A51" s="13">
+      <c r="A51" s="11">
         <v>2019</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="14"/>
+      <c r="F51" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3500,2451 +3485,2451 @@
       <c r="A52" s="3">
         <v>2020</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="18"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="16"/>
     </row>
     <row r="53" ht="129.75" customHeight="1">
       <c r="A53" s="3">
         <v>2020</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
     </row>
     <row r="54" ht="99.75">
       <c r="A54" s="3">
         <v>2020</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
     </row>
     <row r="55" ht="71.25">
       <c r="A55" s="3">
         <v>2020</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-    </row>
-    <row r="56" ht="114">
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" ht="85.5">
       <c r="A56" s="3">
         <v>2020</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
     </row>
     <row r="57" ht="90">
       <c r="A57" s="3">
         <v>2020</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
     </row>
     <row r="58" ht="57">
       <c r="A58" s="3">
         <v>2020</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
     </row>
     <row r="59" ht="75">
       <c r="A59" s="3">
         <v>2020</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
     </row>
     <row r="60" ht="90">
       <c r="A60" s="3">
         <v>2020</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
     </row>
     <row r="61" ht="120">
       <c r="A61" s="3">
         <v>2020</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H61" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="I61" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
     </row>
     <row r="62" ht="105">
       <c r="A62" s="3">
         <v>2020</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="11" t="s">
+      <c r="D62" s="8"/>
+      <c r="E62" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="F62" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="I62" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
     </row>
     <row r="63" ht="60">
       <c r="A63" s="3">
         <v>2020</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="I63" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
     </row>
     <row r="64" ht="45">
       <c r="A64" s="3">
         <v>2020</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="8"/>
+      <c r="E64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="F64" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="I64" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
     </row>
     <row r="65" ht="78.75">
       <c r="A65" s="3">
         <v>2020</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="11" t="s">
+      <c r="D65" s="8"/>
+      <c r="E65" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
     </row>
     <row r="66" ht="78.75">
       <c r="A66" s="3">
         <v>2020</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="11" t="s">
+      <c r="D66" s="8"/>
+      <c r="E66" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F66" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="I66" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
     </row>
     <row r="67" ht="47.25">
       <c r="A67" s="3">
         <v>2020</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
     </row>
     <row r="68" ht="63">
       <c r="A68" s="3">
         <v>2020</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
     </row>
     <row r="69" ht="94.5">
       <c r="A69" s="3">
         <v>2020</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
     </row>
     <row r="70" ht="94.5">
       <c r="A70" s="3">
         <v>2020</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
     </row>
     <row r="71" ht="94.5">
       <c r="A71" s="3">
         <v>2020</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
     </row>
     <row r="72" ht="110.25">
       <c r="A72" s="3">
         <v>2020</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
     </row>
     <row r="73" ht="78.75">
       <c r="A73" s="3">
         <v>2020</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
     </row>
     <row r="74" ht="78.75">
       <c r="A74" s="3">
         <v>2020</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="5" t="s">
+      <c r="D74" s="8"/>
+      <c r="E74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I74" s="5" t="s">
+      <c r="I74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
     </row>
     <row r="75" ht="110.25">
       <c r="A75" s="3">
         <v>2020</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I75" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
     </row>
     <row r="76" ht="94.5">
       <c r="A76" s="3">
         <v>2020</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="5" t="s">
+      <c r="D76" s="8"/>
+      <c r="E76" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I76" s="5" t="s">
+      <c r="I76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
     </row>
     <row r="77" ht="63">
       <c r="A77" s="3">
         <v>2020</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="5" t="s">
+      <c r="I77" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
     </row>
     <row r="78" ht="110.25">
       <c r="A78" s="3">
         <v>2020</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I78" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
     </row>
     <row r="79" ht="63">
       <c r="A79" s="3">
         <v>2020</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F79" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I79" s="5" t="s">
+      <c r="I79" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
     </row>
     <row r="80" ht="85.5" customHeight="1">
       <c r="A80" s="3">
         <v>2020</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I80" s="5" t="s">
+      <c r="I80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
     </row>
     <row r="81" ht="117" customHeight="1">
       <c r="A81" s="3">
         <v>2020</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="I81" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
     </row>
     <row r="82" ht="96.75" customHeight="1">
       <c r="A82" s="3">
         <v>2020</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="11" t="s">
+      <c r="D82" s="16"/>
+      <c r="E82" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F82" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I82" s="5" t="s">
+      <c r="I82" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
     </row>
     <row r="83" ht="60" customHeight="1">
       <c r="A83" s="3">
         <v>2020</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="11" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="F83" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="J83" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
     </row>
     <row r="84" ht="114.75" customHeight="1">
-      <c r="A84" s="20">
+      <c r="A84" s="18">
         <v>2021</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="20" t="s">
+      <c r="D84" s="19"/>
+      <c r="E84" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G84" s="20" t="s">
+      <c r="G84" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="20" t="s">
+      <c r="H84" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J84" s="20" t="s">
+      <c r="J84" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="20"/>
     </row>
     <row r="85" ht="68.25" customHeight="1">
-      <c r="A85" s="20">
+      <c r="A85" s="18">
         <v>2021</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="20" t="s">
+      <c r="D85" s="19"/>
+      <c r="E85" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G85" s="20" t="s">
+      <c r="G85" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="20" t="s">
+      <c r="H85" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I85" s="20" t="s">
+      <c r="I85" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J85" s="20" t="s">
+      <c r="J85" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
-      <c r="V85" s="22"/>
-      <c r="W85" s="22"/>
-      <c r="X85" s="22"/>
-      <c r="Y85" s="22"/>
-      <c r="Z85" s="22"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+      <c r="X85" s="20"/>
+      <c r="Y85" s="20"/>
+      <c r="Z85" s="20"/>
     </row>
     <row r="86" ht="128.25" customHeight="1">
-      <c r="A86" s="20">
+      <c r="A86" s="18">
         <v>2021</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="20" t="s">
+      <c r="D86" s="19"/>
+      <c r="E86" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="G86" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="21" t="s">
+      <c r="H86" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I86" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J86" s="20" t="s">
+      <c r="J86" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
-      <c r="S86" s="22"/>
-      <c r="T86" s="22"/>
-      <c r="U86" s="22"/>
-      <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-      <c r="X86" s="22"/>
-      <c r="Y86" s="22"/>
-      <c r="Z86" s="22"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+      <c r="X86" s="20"/>
+      <c r="Y86" s="20"/>
+      <c r="Z86" s="20"/>
     </row>
     <row r="87" ht="106.5" customHeight="1">
-      <c r="A87" s="20">
+      <c r="A87" s="18">
         <v>2021</v>
       </c>
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D87" s="20" t="s">
+      <c r="D87" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="G87" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="21" t="s">
+      <c r="H87" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I87" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J87" s="20" t="s">
+      <c r="J87" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="22"/>
-      <c r="S87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="U87" s="22"/>
-      <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-      <c r="X87" s="22"/>
-      <c r="Y87" s="22"/>
-      <c r="Z87" s="22"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+      <c r="X87" s="20"/>
+      <c r="Y87" s="20"/>
+      <c r="Z87" s="20"/>
     </row>
     <row r="88" ht="76.5" customHeight="1">
-      <c r="A88" s="20">
+      <c r="A88" s="18">
         <v>2021</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="D88" s="20" t="s">
+      <c r="D88" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="E88" s="20" t="s">
+      <c r="E88" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F88" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="G88" s="21" t="s">
+      <c r="G88" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H88" s="21" t="s">
+      <c r="H88" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I88" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J88" s="20" t="s">
+      <c r="J88" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="O88" s="22"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="R88" s="22"/>
-      <c r="S88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="U88" s="22"/>
-      <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-      <c r="X88" s="22"/>
-      <c r="Y88" s="22"/>
-      <c r="Z88" s="22"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+      <c r="X88" s="20"/>
+      <c r="Y88" s="20"/>
+      <c r="Z88" s="20"/>
     </row>
     <row r="89" ht="79.5" customHeight="1">
-      <c r="A89" s="20">
+      <c r="A89" s="18">
         <v>2021</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="20" t="s">
+      <c r="D89" s="19"/>
+      <c r="E89" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="G89" s="21" t="s">
+      <c r="G89" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J89" s="20" t="s">
+      <c r="J89" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="O89" s="22"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="R89" s="22"/>
-      <c r="S89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="U89" s="22"/>
-      <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-      <c r="X89" s="22"/>
-      <c r="Y89" s="22"/>
-      <c r="Z89" s="22"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+      <c r="X89" s="20"/>
+      <c r="Y89" s="20"/>
+      <c r="Z89" s="20"/>
     </row>
     <row r="90" ht="71.25" customHeight="1">
-      <c r="A90" s="20">
+      <c r="A90" s="18">
         <v>2021</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="21"/>
-      <c r="E90" s="20" t="s">
+      <c r="D90" s="19"/>
+      <c r="E90" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="F90" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="G90" s="21" t="s">
+      <c r="G90" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H90" s="21" t="s">
+      <c r="H90" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J90" s="25" t="s">
+      <c r="J90" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="22"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-      <c r="X90" s="22"/>
-      <c r="Y90" s="22"/>
-      <c r="Z90" s="22"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+      <c r="X90" s="20"/>
+      <c r="Y90" s="20"/>
+      <c r="Z90" s="20"/>
     </row>
     <row r="91" ht="63" customHeight="1">
-      <c r="A91" s="20">
+      <c r="A91" s="18">
         <v>2021</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="C91" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="20" t="s">
+      <c r="D91" s="19"/>
+      <c r="E91" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="F91" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="G91" s="21" t="s">
+      <c r="G91" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H91" s="21" t="s">
+      <c r="H91" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J91" s="25" t="s">
+      <c r="J91" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="22"/>
-      <c r="S91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="U91" s="22"/>
-      <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-      <c r="X91" s="22"/>
-      <c r="Y91" s="22"/>
-      <c r="Z91" s="22"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+      <c r="X91" s="20"/>
+      <c r="Y91" s="20"/>
+      <c r="Z91" s="20"/>
     </row>
     <row r="92" ht="83.25" customHeight="1">
-      <c r="A92" s="20">
+      <c r="A92" s="18">
         <v>2021</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C92" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="D92" s="25" t="s">
+      <c r="D92" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="20" t="s">
+      <c r="E92" s="19"/>
+      <c r="F92" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="G92" s="21" t="s">
+      <c r="G92" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H92" s="21" t="s">
+      <c r="H92" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I92" s="21" t="s">
+      <c r="I92" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="J92" s="25" t="s">
+      <c r="J92" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="22"/>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="22"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="20"/>
     </row>
     <row r="93" ht="73.5" customHeight="1">
-      <c r="A93" s="20">
+      <c r="A93" s="18">
         <v>2021</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="D93" s="25" t="s">
+      <c r="D93" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="E93" s="20" t="s">
+      <c r="E93" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="20" t="s">
+      <c r="F93" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="G93" s="21" t="s">
+      <c r="G93" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="H93" s="21" t="s">
+      <c r="H93" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="I93" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J93" s="25" t="s">
+      <c r="J93" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="O93" s="22"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="R93" s="22"/>
-      <c r="S93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="U93" s="22"/>
-      <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-      <c r="X93" s="22"/>
-      <c r="Y93" s="22"/>
-      <c r="Z93" s="22"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+      <c r="X93" s="20"/>
+      <c r="Y93" s="20"/>
+      <c r="Z93" s="20"/>
     </row>
     <row r="94" ht="75.75" customHeight="1">
-      <c r="A94" s="20">
+      <c r="A94" s="18">
         <v>2021</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D94" s="25" t="s">
+      <c r="D94" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="20" t="s">
+      <c r="F94" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="G94" s="21" t="s">
+      <c r="G94" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="H94" s="21" t="s">
+      <c r="H94" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I94" s="21" t="s">
+      <c r="I94" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J94" s="25" t="s">
+      <c r="J94" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="22"/>
-      <c r="S94" s="22"/>
-      <c r="T94" s="22"/>
-      <c r="U94" s="22"/>
-      <c r="V94" s="22"/>
-      <c r="W94" s="22"/>
-      <c r="X94" s="22"/>
-      <c r="Y94" s="22"/>
-      <c r="Z94" s="22"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="20"/>
+      <c r="X94" s="20"/>
+      <c r="Y94" s="20"/>
+      <c r="Z94" s="20"/>
     </row>
     <row r="95" ht="96" customHeight="1">
-      <c r="A95" s="20">
+      <c r="A95" s="18">
         <v>2021</v>
       </c>
-      <c r="B95" s="25" t="s">
+      <c r="B95" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="C95" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="20" t="s">
+      <c r="D95" s="23"/>
+      <c r="E95" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="20" t="s">
+      <c r="F95" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="G95" s="21" t="s">
+      <c r="G95" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="H95" s="21" t="s">
+      <c r="H95" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I95" s="21" t="s">
+      <c r="I95" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J95" s="25" t="s">
+      <c r="J95" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="22"/>
-      <c r="S95" s="22"/>
-      <c r="T95" s="22"/>
-      <c r="U95" s="22"/>
-      <c r="V95" s="22"/>
-      <c r="W95" s="22"/>
-      <c r="X95" s="22"/>
-      <c r="Y95" s="22"/>
-      <c r="Z95" s="22"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="20"/>
+      <c r="X95" s="20"/>
+      <c r="Y95" s="20"/>
+      <c r="Z95" s="20"/>
     </row>
     <row r="96" ht="162" customHeight="1">
-      <c r="A96" s="20">
+      <c r="A96" s="18">
         <v>2021</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D96" s="25" t="s">
+      <c r="D96" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="F96" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="G96" s="21" t="s">
+      <c r="G96" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="H96" s="21" t="s">
+      <c r="H96" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I96" s="21" t="s">
+      <c r="I96" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J96" s="25" t="s">
+      <c r="J96" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="22"/>
-      <c r="S96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="U96" s="22"/>
-      <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-      <c r="X96" s="22"/>
-      <c r="Y96" s="22"/>
-      <c r="Z96" s="22"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="20"/>
+      <c r="X96" s="20"/>
+      <c r="Y96" s="20"/>
+      <c r="Z96" s="20"/>
     </row>
     <row r="97" ht="115.5" customHeight="1">
-      <c r="A97" s="20">
+      <c r="A97" s="18">
         <v>2021</v>
       </c>
-      <c r="B97" s="25" t="s">
+      <c r="B97" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="20" t="s">
+      <c r="D97" s="19"/>
+      <c r="E97" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="21"/>
-      <c r="G97" s="21" t="s">
+      <c r="F97" s="19"/>
+      <c r="G97" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H97" s="21" t="s">
+      <c r="H97" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I97" s="21" t="s">
+      <c r="I97" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J97" s="25" t="s">
+      <c r="J97" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="O97" s="22"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="R97" s="22"/>
-      <c r="S97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="U97" s="22"/>
-      <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-      <c r="X97" s="22"/>
-      <c r="Y97" s="22"/>
-      <c r="Z97" s="22"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+      <c r="X97" s="20"/>
+      <c r="Y97" s="20"/>
+      <c r="Z97" s="20"/>
     </row>
     <row r="98" ht="156.75" customHeight="1">
-      <c r="A98" s="20">
+      <c r="A98" s="18">
         <v>2021</v>
       </c>
-      <c r="B98" s="25" t="s">
+      <c r="B98" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="D98" s="25" t="s">
+      <c r="D98" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="E98" s="20" t="s">
+      <c r="E98" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="G98" s="21" t="s">
+      <c r="G98" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H98" s="21" t="s">
+      <c r="H98" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I98" s="21" t="s">
+      <c r="I98" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J98" s="25" t="s">
+      <c r="J98" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="22"/>
-      <c r="S98" s="22"/>
-      <c r="T98" s="22"/>
-      <c r="U98" s="22"/>
-      <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-      <c r="X98" s="22"/>
-      <c r="Y98" s="22"/>
-      <c r="Z98" s="22"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+      <c r="X98" s="20"/>
+      <c r="Y98" s="20"/>
+      <c r="Z98" s="20"/>
     </row>
     <row r="99" ht="81" customHeight="1">
-      <c r="A99" s="20">
+      <c r="A99" s="18">
         <v>2021</v>
       </c>
-      <c r="B99" s="25" t="s">
+      <c r="B99" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="25" t="s">
+      <c r="D99" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="E99" s="20" t="s">
+      <c r="E99" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F99" s="20" t="s">
+      <c r="F99" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="G99" s="21" t="s">
+      <c r="G99" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H99" s="21" t="s">
+      <c r="H99" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I99" s="21" t="s">
+      <c r="I99" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J99" s="25" t="s">
+      <c r="J99" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
-      <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-      <c r="X99" s="22"/>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+      <c r="X99" s="20"/>
+      <c r="Y99" s="20"/>
+      <c r="Z99" s="20"/>
     </row>
     <row r="100" ht="73.5" customHeight="1">
-      <c r="A100" s="20">
+      <c r="A100" s="18">
         <v>2021</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B100" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C100" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D100" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="E100" s="20" t="s">
+      <c r="E100" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F100" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="G100" s="21" t="s">
+      <c r="G100" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H100" s="21" t="s">
+      <c r="H100" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I100" s="21" t="s">
+      <c r="I100" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J100" s="25" t="s">
+      <c r="J100" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-      <c r="X100" s="22"/>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
+      <c r="X100" s="20"/>
+      <c r="Y100" s="20"/>
+      <c r="Z100" s="20"/>
     </row>
     <row r="101" ht="106.5" customHeight="1">
-      <c r="A101" s="20">
+      <c r="A101" s="18">
         <v>2021</v>
       </c>
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="C101" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="E101" s="21"/>
-      <c r="F101" s="25" t="s">
+      <c r="E101" s="19"/>
+      <c r="F101" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="G101" s="21" t="s">
+      <c r="G101" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H101" s="21" t="s">
+      <c r="H101" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J101" s="25" t="s">
+      <c r="J101" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="K101" s="22"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="22"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
-      <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-      <c r="X101" s="22"/>
-      <c r="Y101" s="22"/>
-      <c r="Z101" s="22"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+      <c r="Q101" s="20"/>
+      <c r="R101" s="20"/>
+      <c r="S101" s="20"/>
+      <c r="T101" s="20"/>
+      <c r="U101" s="20"/>
+      <c r="V101" s="20"/>
+      <c r="W101" s="20"/>
+      <c r="X101" s="20"/>
+      <c r="Y101" s="20"/>
+      <c r="Z101" s="20"/>
     </row>
     <row r="102" ht="73.5" customHeight="1">
-      <c r="A102" s="20">
+      <c r="A102" s="18">
         <v>2021</v>
       </c>
-      <c r="B102" s="25" t="s">
+      <c r="B102" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C102" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D102" s="25" t="s">
+      <c r="D102" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="F102" s="25" t="s">
+      <c r="E102" s="19"/>
+      <c r="F102" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="G102" s="21" t="s">
+      <c r="G102" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H102" s="21" t="s">
+      <c r="H102" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I102" s="21" t="s">
+      <c r="I102" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J102" s="25" t="s">
+      <c r="J102" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="K102" s="22"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="22"/>
-      <c r="S102" s="22"/>
-      <c r="T102" s="22"/>
-      <c r="U102" s="22"/>
-      <c r="V102" s="22"/>
-      <c r="W102" s="22"/>
-      <c r="X102" s="22"/>
-      <c r="Y102" s="22"/>
-      <c r="Z102" s="22"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="20"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+      <c r="Q102" s="20"/>
+      <c r="R102" s="20"/>
+      <c r="S102" s="20"/>
+      <c r="T102" s="20"/>
+      <c r="U102" s="20"/>
+      <c r="V102" s="20"/>
+      <c r="W102" s="20"/>
+      <c r="X102" s="20"/>
+      <c r="Y102" s="20"/>
+      <c r="Z102" s="20"/>
     </row>
     <row r="103" ht="78.75">
-      <c r="A103" s="20">
+      <c r="A103" s="18">
         <v>2021</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="20" t="s">
+      <c r="D103" s="19"/>
+      <c r="E103" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F103" s="25" t="s">
+      <c r="F103" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="G103" s="21" t="s">
+      <c r="G103" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H103" s="21" t="s">
+      <c r="H103" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I103" s="21" t="s">
+      <c r="I103" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J103" s="25" t="s">
+      <c r="J103" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="22"/>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="22"/>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="22"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="20"/>
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="20"/>
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="20"/>
     </row>
     <row r="104" ht="75" customHeight="1">
-      <c r="A104" s="20">
+      <c r="A104" s="18">
         <v>2021</v>
       </c>
-      <c r="B104" s="25" t="s">
+      <c r="B104" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C104" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="D104" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="E104" s="20" t="s">
+      <c r="E104" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="25" t="s">
+      <c r="F104" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="G104" s="21" t="s">
+      <c r="G104" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H104" s="21" t="s">
+      <c r="H104" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I104" s="21" t="s">
+      <c r="I104" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J104" s="25" t="s">
+      <c r="J104" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="K104" s="22"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="22"/>
-      <c r="S104" s="22"/>
-      <c r="T104" s="22"/>
-      <c r="U104" s="22"/>
-      <c r="V104" s="22"/>
-      <c r="W104" s="22"/>
-      <c r="X104" s="22"/>
-      <c r="Y104" s="22"/>
-      <c r="Z104" s="22"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="20"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+      <c r="Q104" s="20"/>
+      <c r="R104" s="20"/>
+      <c r="S104" s="20"/>
+      <c r="T104" s="20"/>
+      <c r="U104" s="20"/>
+      <c r="V104" s="20"/>
+      <c r="W104" s="20"/>
+      <c r="X104" s="20"/>
+      <c r="Y104" s="20"/>
+      <c r="Z104" s="20"/>
     </row>
     <row r="105" ht="74.25" customHeight="1">
-      <c r="A105" s="20">
+      <c r="A105" s="18">
         <v>2021</v>
       </c>
-      <c r="B105" s="25" t="s">
+      <c r="B105" s="23" t="s">
         <v>359</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="C105" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D105" s="20" t="s">
+      <c r="D105" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="20" t="s">
+      <c r="F105" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G105" s="21" t="s">
+      <c r="G105" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="21" t="s">
+      <c r="H105" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J105" s="25" t="s">
+      <c r="J105" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="K105" s="22"/>
-      <c r="L105" s="22"/>
-      <c r="M105" s="22"/>
-      <c r="N105" s="22"/>
-      <c r="O105" s="22"/>
-      <c r="P105" s="22"/>
-      <c r="Q105" s="22"/>
-      <c r="R105" s="22"/>
-      <c r="S105" s="22"/>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-      <c r="X105" s="22"/>
-      <c r="Y105" s="22"/>
-      <c r="Z105" s="22"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="20"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+      <c r="Q105" s="20"/>
+      <c r="R105" s="20"/>
+      <c r="S105" s="20"/>
+      <c r="T105" s="20"/>
+      <c r="U105" s="20"/>
+      <c r="V105" s="20"/>
+      <c r="W105" s="20"/>
+      <c r="X105" s="20"/>
+      <c r="Y105" s="20"/>
+      <c r="Z105" s="20"/>
     </row>
     <row r="106" ht="106.5" customHeight="1">
-      <c r="A106" s="20">
+      <c r="A106" s="18">
         <v>2021</v>
       </c>
-      <c r="B106" s="26" t="s">
+      <c r="B106" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="E106" s="20" t="s">
+      <c r="E106" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="20" t="s">
+      <c r="F106" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="G106" s="21" t="s">
+      <c r="G106" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H106" s="21" t="s">
+      <c r="H106" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I106" s="21" t="s">
+      <c r="I106" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J106" s="20" t="s">
+      <c r="J106" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="K106" s="22"/>
-      <c r="L106" s="22"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="22"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="22"/>
-      <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
-      <c r="U106" s="22"/>
-      <c r="V106" s="22"/>
-      <c r="W106" s="22"/>
-      <c r="X106" s="22"/>
-      <c r="Y106" s="22"/>
-      <c r="Z106" s="22"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+      <c r="Q106" s="20"/>
+      <c r="R106" s="20"/>
+      <c r="S106" s="20"/>
+      <c r="T106" s="20"/>
+      <c r="U106" s="20"/>
+      <c r="V106" s="20"/>
+      <c r="W106" s="20"/>
+      <c r="X106" s="20"/>
+      <c r="Y106" s="20"/>
+      <c r="Z106" s="20"/>
     </row>
     <row r="107" ht="108" customHeight="1">
-      <c r="A107" s="20">
+      <c r="A107" s="18">
         <v>2021</v>
       </c>
-      <c r="B107" s="20" t="s">
+      <c r="B107" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="D107" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="G107" s="21" t="s">
+      <c r="G107" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H107" s="21" t="s">
+      <c r="H107" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I107" s="21" t="s">
+      <c r="I107" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J107" s="20" t="s">
+      <c r="J107" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="K107" s="22"/>
-      <c r="L107" s="22"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="22"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="22"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
-      <c r="U107" s="22"/>
-      <c r="V107" s="22"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="22"/>
-      <c r="Y107" s="22"/>
-      <c r="Z107" s="22"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+      <c r="R107" s="20"/>
+      <c r="S107" s="20"/>
+      <c r="T107" s="20"/>
+      <c r="U107" s="20"/>
+      <c r="V107" s="20"/>
+      <c r="W107" s="20"/>
+      <c r="X107" s="20"/>
+      <c r="Y107" s="20"/>
+      <c r="Z107" s="20"/>
     </row>
     <row r="108" ht="105" customHeight="1">
-      <c r="A108" s="20">
+      <c r="A108" s="18">
         <v>2021</v>
       </c>
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="20" t="s">
+      <c r="F108" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="G108" s="21" t="s">
+      <c r="G108" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H108" s="21" t="s">
+      <c r="H108" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I108" s="21" t="s">
+      <c r="I108" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J108" s="20" t="s">
+      <c r="J108" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="K108" s="22"/>
-      <c r="L108" s="22"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="22"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="22"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
-      <c r="U108" s="22"/>
-      <c r="V108" s="22"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="22"/>
-      <c r="Y108" s="22"/>
-      <c r="Z108" s="22"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+      <c r="Q108" s="20"/>
+      <c r="R108" s="20"/>
+      <c r="S108" s="20"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="20"/>
+      <c r="V108" s="20"/>
+      <c r="W108" s="20"/>
+      <c r="X108" s="20"/>
+      <c r="Y108" s="20"/>
+      <c r="Z108" s="20"/>
     </row>
     <row r="109" ht="92.25" customHeight="1">
-      <c r="A109" s="20">
+      <c r="A109" s="18">
         <v>2021</v>
       </c>
-      <c r="B109" s="20" t="s">
+      <c r="B109" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E109" s="20" t="s">
+      <c r="E109" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F109" s="20" t="s">
+      <c r="F109" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="G109" s="21" t="s">
+      <c r="G109" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H109" s="21" t="s">
+      <c r="H109" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I109" s="21" t="s">
+      <c r="I109" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J109" s="20" t="s">
+      <c r="J109" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="K109" s="22"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
-      <c r="R109" s="22"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="22"/>
-      <c r="U109" s="22"/>
-      <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-      <c r="X109" s="22"/>
-      <c r="Y109" s="22"/>
-      <c r="Z109" s="22"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="20"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+      <c r="R109" s="20"/>
+      <c r="S109" s="20"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="20"/>
+      <c r="V109" s="20"/>
+      <c r="W109" s="20"/>
+      <c r="X109" s="20"/>
+      <c r="Y109" s="20"/>
+      <c r="Z109" s="20"/>
     </row>
     <row r="110" ht="83.25" customHeight="1">
-      <c r="A110" s="20">
+      <c r="A110" s="18">
         <v>2021</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="D110" s="22"/>
-      <c r="E110" s="20" t="s">
+      <c r="D110" s="20"/>
+      <c r="E110" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="20" t="s">
+      <c r="F110" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="G110" s="21" t="s">
+      <c r="G110" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H110" s="21" t="s">
+      <c r="H110" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I110" s="21" t="s">
+      <c r="I110" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J110" s="20" t="s">
+      <c r="J110" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="22"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="22"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
-      <c r="U110" s="22"/>
-      <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="22"/>
-      <c r="Y110" s="22"/>
-      <c r="Z110" s="22"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+      <c r="Q110" s="20"/>
+      <c r="R110" s="20"/>
+      <c r="S110" s="20"/>
+      <c r="T110" s="20"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="20"/>
+      <c r="W110" s="20"/>
+      <c r="X110" s="20"/>
+      <c r="Y110" s="20"/>
+      <c r="Z110" s="20"/>
     </row>
     <row r="111" ht="190.5" customHeight="1">
-      <c r="A111" s="20">
+      <c r="A111" s="18">
         <v>2021</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="20" t="s">
+      <c r="D111" s="20"/>
+      <c r="E111" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="20" t="s">
+      <c r="F111" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="G111" s="21" t="s">
+      <c r="G111" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H111" s="21" t="s">
+      <c r="H111" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I111" s="21" t="s">
+      <c r="I111" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="J111" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-      <c r="Y111" s="22"/>
-      <c r="Z111" s="22"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="20"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+      <c r="Q111" s="20"/>
+      <c r="R111" s="20"/>
+      <c r="S111" s="20"/>
+      <c r="T111" s="20"/>
+      <c r="U111" s="20"/>
+      <c r="V111" s="20"/>
+      <c r="W111" s="20"/>
+      <c r="X111" s="20"/>
+      <c r="Y111" s="20"/>
+      <c r="Z111" s="20"/>
     </row>
     <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
@@ -6838,7 +6823,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>